--- a/data/trans_orig/Q17B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,13</t>
+          <t>0,04; 0,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,33</t>
+          <t>0,16; 0,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,21</t>
+          <t>0,1; 0,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,34 +811,34 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,21</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
           <t>0,27</t>
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,29</t>
+          <t>0,16; 0,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 6,8</t>
+          <t>0,27; 0,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,77</t>
+          <t>0,24; 0,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,35</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,29</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 212,21</t>
+          <t>0,25; 0,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 104,83</t>
+          <t>0,21; 0,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,29</t>
+          <t>0,08; 0,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,39</t>
+          <t>0,26; 0,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,32</t>
+          <t>0,14; 0,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,38</t>
+          <t>0,27; 0,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>0,52</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>0,55</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,65</t>
+          <t>0,46; 0,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 0,63</t>
+          <t>0,45; 0,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,59</t>
+          <t>0,42; 0,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,44</t>
+          <t>0,31; 0,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,64</t>
+          <t>0,43; 0,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,74</t>
+          <t>0,5; 0,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,68</t>
+          <t>0,51; 0,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,4</t>
+          <t>0,09; 0,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,61</t>
+          <t>0,47; 0,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,65</t>
+          <t>0,5; 0,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,62</t>
+          <t>0,49; 0,61</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,39</t>
+          <t>0,15; 0,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>0,37</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>7,5</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>4,1</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,41; 0,56</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 0,74</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 0,69</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 0,42</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 0,81</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 0,7</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 0,76</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 0,43</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 0,68</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 0,67</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 0,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 0,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,22; 0,27</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,27; 0,32</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,3; 0,35</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 0,27</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,26</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,35; 0,4</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0,39; 0,44</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,39; 0,45</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 30,34</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 0,36</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0,29; 0,33</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0,34; 0,37</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0,35; 0,39</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 18,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 0,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q17B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Edad-trans_orig.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,22</t>
+          <t>0,12; 0,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,37</t>
+          <t>0,23; 0,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,34</t>
+          <t>0,15; 0,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,27</t>
+          <t>0,19; 0,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,21</t>
+          <t>0,1; 0,2</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,23</t>
+          <t>0,15; 0,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,3</t>
+          <t>0,16; 0,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,22 +889,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,4</t>
+          <t>0,29; 0,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,52</t>
+          <t>0,31; 0,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,62</t>
+          <t>0,27; 0,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,25</t>
+          <t>0,18; 0,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,27</t>
+          <t>0,16; 0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,32</t>
+          <t>0,22; 0,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,24</t>
+          <t>0,15; 0,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,36</t>
+          <t>0,26; 0,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,36</t>
+          <t>0,25; 0,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,34</t>
+          <t>0,26; 0,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,29</t>
+          <t>0,21; 0,28</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,25</t>
+          <t>0,15; 0,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,26</t>
+          <t>0,17; 0,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,44</t>
+          <t>0,28; 0,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,22 +1164,22 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,43</t>
+          <t>0,31; 0,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,46</t>
+          <t>0,35; 0,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,41</t>
+          <t>0,28; 0,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,36</t>
+          <t>0,26; 0,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,35</t>
+          <t>0,27; 0,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,52</t>
+          <t>0,35; 0,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,57</t>
+          <t>0,33; 0,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,38</t>
+          <t>0,26; 0,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,5</t>
+          <t>0,37; 0,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,63</t>
+          <t>0,44; 0,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,41</t>
+          <t>0,3; 0,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,48</t>
+          <t>0,37; 0,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,55</t>
+          <t>0,4; 0,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,73</t>
+          <t>0,46; 0,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 0,62</t>
+          <t>0,45; 0,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,6</t>
+          <t>0,41; 0,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,22 +1444,22 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,56</t>
+          <t>0,43; 0,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,88</t>
+          <t>0,5; 0,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,68</t>
+          <t>0,52; 0,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,39</t>
+          <t>0,1; 0,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,71</t>
+          <t>0,5; 0,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 0,61</t>
+          <t>0,49; 0,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,39</t>
+          <t>0,15; 0,4</t>
         </is>
       </c>
     </row>
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,56</t>
+          <t>0,41; 0,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,74</t>
+          <t>0,48; 0,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,69</t>
+          <t>0,45; 0,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,81</t>
+          <t>0,53; 0,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,76</t>
+          <t>0,49; 0,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,68</t>
+          <t>0,49; 0,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 0,67</t>
+          <t>0,55; 0,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,68</t>
+          <t>0,49; 0,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,27</t>
+          <t>0,23; 0,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,35</t>
+          <t>0,29; 0,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1729,17 +1729,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,44</t>
+          <t>0,39; 0,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,45</t>
+          <t>0,39; 0,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,36</t>
+          <t>0,26; 0,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
